--- a/data/trans_bre/P18_4_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P18_4_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,8 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +544,16 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +580,32 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +620,8 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,67</t>
+          <t>-1,32</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>2,28</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,88</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,89</t>
+          <t>3,01</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,42%</t>
+          <t>5,44</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>9,58%</t>
+          <t>-4,87%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>54,03%</t>
+          <t>28,08%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>18,37%</t>
+          <t>11,4%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>29,2%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>76,33%</t>
         </is>
       </c>
     </row>
@@ -668,42 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,76; 7,82</t>
+          <t>-14,1; 7,54</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 5,89</t>
+          <t>-3,09; 8,45</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,26; 10,08</t>
+          <t>-14,2; 9,71</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 6,5</t>
+          <t>-4,14; 10,04</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-23,34; 34,17</t>
+          <t>-0,73; 12,98</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-41,24; 90,68</t>
+          <t>-39,34; 35,77</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-39,31; 179,12</t>
+          <t>-28,98; 171,93</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-27,55; 82,88</t>
+          <t>-59,0; 138,56</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-31,6; 158,45</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-17,38; 271,94</t>
         </is>
       </c>
     </row>
@@ -720,42 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,42</t>
+          <t>1,87</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,08</t>
+          <t>3,71</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,01</t>
+          <t>5,74</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,99</t>
+          <t>2,77</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>10,43%</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>45,97%</t>
+          <t>8,22%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>50,66%</t>
+          <t>57,92%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>71,85%</t>
+          <t>57,06%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>36,07%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>13,16%</t>
         </is>
       </c>
     </row>
@@ -768,42 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,64; 10,9</t>
+          <t>-8,59; 11,56</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 8,58</t>
+          <t>-2,48; 10,22</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,9; 11,17</t>
+          <t>-2,58; 13,33</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 16,11</t>
+          <t>-3,42; 9,76</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-21,26; 57,25</t>
+          <t>-5,09; 5,93</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-32,8; 212,27</t>
+          <t>-30,45; 69,64</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-31,38; 170,98</t>
+          <t>-30,06; 271,43</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-23,37; 261,69</t>
+          <t>-18,67; 209,73</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-35,91; 220,24</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-58,02; 197,19</t>
         </is>
       </c>
     </row>
@@ -820,42 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>12,51</t>
+          <t>11,56</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,45</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,06</t>
+          <t>3,08</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>-14,28</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>48,4%</t>
+          <t>3,42</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>49,95%</t>
+          <t>45,57%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>15,2%</t>
+          <t>17,24%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>7,03%</t>
+          <t>28,68%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-73,16%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>61,49%</t>
         </is>
       </c>
     </row>
@@ -868,42 +934,52 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,33; 29,01</t>
+          <t>-13,33; 38,87</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,56; 13,57</t>
+          <t>-12,74; 11,31</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,75; 14,13</t>
+          <t>-13,97; 18,56</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-10,33; 12,91</t>
+          <t>-34,66; 2,74</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-16,31; 177,11</t>
+          <t>-8,74; 17,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-61,91; 670,22</t>
+          <t>-33,92; 404,46</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-57,13; 186,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-68,13; 293,66</t>
+          <t>-77,28; 723,86</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 84,88</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -920,42 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,52</t>
+          <t>1,16</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,08</t>
+          <t>2,77</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,54</t>
+          <t>3,42</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,4</t>
+          <t>1,13</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>9,79%</t>
+          <t>3,46</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>25,82%</t>
+          <t>4,61%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>45,72%</t>
+          <t>38,52%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>35,56%</t>
+          <t>29,46%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>11,11%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>53,3%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1054,59 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 7,36</t>
+          <t>-6,98; 8,3</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 5,34</t>
+          <t>-1,55; 7,12</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 8,55</t>
+          <t>-6,37; 8,53</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 8,34</t>
+          <t>-4,03; 5,79</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-11,57; 31,8</t>
+          <t>-1,44; 7,97</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-22,13; 85,39</t>
+          <t>-22,69; 38,66</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-6,17; 116,65</t>
+          <t>-16,3; 143,68</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-6,77; 111,44</t>
+          <t>-36,88; 102,91</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-29,82; 78,69</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-16,65; 170,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1011,9 +1114,9 @@
   <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P18_4_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P18_4_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -634,359 +643,235 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-1,32</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>2,28</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>1,5</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>3,01</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>5,44</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-4,87%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>28,08%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>11,4%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>29,2%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>76,33%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-1.321962433142393</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>3.386111980382823</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>2.983102445170877</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>2.627449738058781</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>5.937985356190856</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.04867643919035767</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.4498960028795025</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.2458263627882941</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.2437079844132632</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.8293280634849622</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-14,1; 7,54</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-3,09; 8,45</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-14,2; 9,71</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-4,14; 10,04</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-0,73; 12,98</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-39,34; 35,77</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-28,98; 171,93</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-59,0; 138,56</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-31,6; 158,45</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-17,38; 271,94</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-14.10376919002934</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-2.010559167377561</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-11.08624366695793</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-4.979813173382096</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-0.5551916599290506</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.393429974236656</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.2265293078057575</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.5364427584236126</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.3513861839629718</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.1592059212447515</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>7.537674480256716</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>10.45560540855391</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>10.84963670871056</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>10.20066413881723</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>14.61944337329863</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.3576790715332338</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>2.217043766055872</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>1.569492568894695</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>1.434873433929643</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>3.065004571668587</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>1,87</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>3,71</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>5,74</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>2,77</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>0,78</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>8,22%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>57,92%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>57,06%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>36,07%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>13,16%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-8,59; 11,56</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-2,48; 10,22</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-2,58; 13,33</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-3,42; 9,76</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-5,09; 5,93</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-30,45; 69,64</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-30,06; 271,43</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-18,67; 209,73</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-35,91; 220,24</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-58,02; 197,19</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>1.866503950760254</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>2.301478764528393</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>5.390683952897418</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>2.981836233506975</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>0.4930468968844776</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.08222972348942557</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.2871608032077461</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.5411111026487365</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.4120276402353232</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.07806177268491028</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>11,56</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1,06</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>3,08</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-14,28</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>3,42</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>45,57%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>17,24%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>28,68%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>-73,16%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>61,49%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-8.586749167837777</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-7.056533968357871</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-2.792737998036667</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-2.880460139032667</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-5.737406846271988</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.3045499513643628</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.5584762887881828</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.2061160626854766</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.3370852429176469</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.6274583480073408</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-13,33; 38,87</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-12,74; 11,31</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-13,97; 18,56</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-34,66; 2,74</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-8,74; 17,0</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-33,92; 404,46</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-77,28; 723,86</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 84,88</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>11.564358292676</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>9.349101097343427</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>12.92555301170254</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>10.01400338950813</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>5.848023256968218</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.6963814280553604</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>2.283832619461724</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>2.192009357361181</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>2.329270271296916</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>1.851123633211395</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -994,117 +879,225 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>1,16</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>2,77</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>3,42</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>1,13</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>3,46</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>4,61%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>38,52%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>29,46%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>11,11%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>53,3%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>11.55561605178608</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>3.633526710157293</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>3.134246665408406</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-14.34540227377807</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>2.022075810393654</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.4557454483681351</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.6050775999749173</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.2705728325366126</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>-0.7466503729587316</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>0.3640212412484907</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-6,98; 8,3</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-1,55; 7,12</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-6,37; 8,53</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-4,03; 5,79</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-1,44; 7,97</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-22,69; 38,66</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-16,3; 143,68</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-36,88; 102,91</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>-29,82; 78,69</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-16,65; 170,0</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-13.33420048560006</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-9.017440403356716</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-14.42977354594979</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-34.18167968433802</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-10.39137197549761</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.3391900952945719</v>
+      </c>
+      <c r="I11" s="6" t="inlineStr"/>
+      <c r="J11" s="6" t="n">
+        <v>-0.7910106308329555</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>38.8683876846958</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>17.90102677375429</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>20.01534312201512</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>2.167630157189523</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>13.22744788510118</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>4.044639368463799</v>
+      </c>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="n">
+        <v>7.335596142139226</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>0.7370465593435108</v>
+      </c>
+      <c r="L12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>1.159016945399849</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>2.965751389845118</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>4.023302873202622</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>1.040055320540607</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>3.43460769999395</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.04606236060135203</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.3912412723796276</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.360910235555597</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.1022652807733015</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.5172552821884502</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-6.977491961651783</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-2.011696844874115</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-4.507455967620826</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-4.094522091669941</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-1.554532497159715</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.2269276931251414</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.2210429947869557</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.2907848211003929</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.3050498746581413</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.1727808569939195</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>8.303385394968121</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>7.742189548585439</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>8.778478147496509</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>5.705195429652251</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>8.306862932508894</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.3865647592122837</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>1.407401511859673</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>1.094912986678373</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.7462041675050416</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>1.757403390294114</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1112,13 +1105,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
